--- a/DepartmentBreakdown/closet_trunk table.xlsx
+++ b/DepartmentBreakdown/closet_trunk table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agiac\Documents\G12-Network-Infrastructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\G12-Network-Infrastructure\DepartmentBreakdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B90252-8296-43B2-86B8-071945B666D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C11C5-0711-49A4-8B1C-D684BE372421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{89F1F6FB-E3B4-4203-AA48-36A7F32A7279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{89F1F6FB-E3B4-4203-AA48-36A7F32A7279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,103 +36,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Floor</t>
   </si>
   <si>
-    <t>Closet</t>
-  </si>
-  <si>
-    <t>Depts</t>
-  </si>
-  <si>
     <t>Distribution</t>
   </si>
   <si>
     <t>Floor 1</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HR (25) D2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Finance (28) D2</t>
-  </si>
-  <si>
-    <t>Sales (16) D1</t>
-  </si>
-  <si>
     <t>Floor 2</t>
   </si>
   <si>
-    <t>Sales (9) D1</t>
-  </si>
-  <si>
-    <t>Legal (25) D2</t>
-  </si>
-  <si>
-    <t>Dist A</t>
-  </si>
-  <si>
-    <t>IT (36) D2</t>
-  </si>
-  <si>
-    <t>Dist B</t>
-  </si>
-  <si>
     <t>Floor 3</t>
   </si>
   <si>
-    <t>IT (10) D2</t>
-  </si>
-  <si>
-    <t>Security (16) D1</t>
-  </si>
-  <si>
-    <t>Communications (22) D1</t>
-  </si>
-  <si>
-    <t>Business Consultants (27) D1</t>
-  </si>
-  <si>
     <t>Floor 4</t>
   </si>
   <si>
-    <t>Business Consultants (34) D1</t>
-  </si>
-  <si>
-    <t>Client Management (31) D1</t>
-  </si>
-  <si>
-    <t>Research and Analysis (4) D2</t>
-  </si>
-  <si>
     <t>Floor 5</t>
   </si>
   <si>
-    <t>Research and Analysis (12) D2</t>
-  </si>
-  <si>
-    <t>Project Management (16) D2</t>
-  </si>
-  <si>
-    <t>Executive (1) D2</t>
-  </si>
-  <si>
-    <t>note: A=north, B=South</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>D1 is located here</t>
+  </si>
+  <si>
+    <t>D2 is located here</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>HR (25)</t>
+  </si>
+  <si>
+    <t>Finance (28)</t>
+  </si>
+  <si>
+    <t>Sales (16)</t>
+  </si>
+  <si>
+    <t>Sales (9)</t>
+  </si>
+  <si>
+    <t>Legal (25)</t>
+  </si>
+  <si>
+    <t>IT (10)</t>
+  </si>
+  <si>
+    <t>IT (36)</t>
+  </si>
+  <si>
+    <t>Security (16)</t>
+  </si>
+  <si>
+    <t>Communications (22)</t>
+  </si>
+  <si>
+    <t>Business Consultants (27)</t>
+  </si>
+  <si>
+    <t>Business Consultants (34)</t>
+  </si>
+  <si>
+    <t>Client Management (31)</t>
+  </si>
+  <si>
+    <t>Research and Analysis (4)</t>
+  </si>
+  <si>
+    <t>Research and Analysis (12)</t>
+  </si>
+  <si>
+    <t>Project Management (16)</t>
+  </si>
+  <si>
+    <t>Executive (1)</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>A (North)</t>
+  </si>
+  <si>
+    <t>B (South)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,17 +149,50 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFDCDDDE"/>
       <name val="Var(--table-header-font)"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFDCDDDE"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,7 +201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF202020"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,11 +224,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -191,17 +252,185 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +441,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B694D6D-B1C2-4B30-8A50-F7570C21EE47}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <autoFilter ref="A1:E18" xr:uid="{2B694D6D-B1C2-4B30-8A50-F7570C21EE47}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A615F3DC-4B0F-4D46-AF7C-FC27695215AC}" name="Floor" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1A4541C4-0AAE-4F5F-950D-C700BDBBFC1F}" name="TR" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E53B0E11-7550-479F-B6AF-E9C90B60862C}" name="Departments" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A0A20CD8-B3B3-494E-A458-BA252D688724}" name="Distribution" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B2E65700-04A6-492A-9A64-1D00E5502984}" name="Notes:" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC03BA1-65D1-4BC1-84D6-13EF7FA38A96}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I3:I4"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,219 +789,245 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="78.75">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34.5">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="34.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="34.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="34.5">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="34.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34.5">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="51.75">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="69">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="86.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="86.25">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="69">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="69">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="86.25">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="69">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="51.75">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="D17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>